--- a/2018 Table 1.xlsx
+++ b/2018 Table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymo\DSF\G11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AED144-8AB1-4427-A9F3-50BF596EDF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54500153-E952-4079-9CE9-B0869AB38905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20292" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,12 +142,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,7 +496,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -515,363 +512,363 @@
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3318.4650000000001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1527769.6547939999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>460.38444123834364</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1223445.1208959999</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>368.67802459751721</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>422.46500000000003</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>149519.27128799999</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>353.92108526860216</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>97289.859473999997</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>230.29093409868275</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1212.9780000000001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>348096.660706</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>286.97689546389131</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>248059.27399799999</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>204.50434715056662</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>852.529</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>225944.518022</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>265.02854216337505</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>148503.16298299999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>174.19133306081085</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2783.498</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>929598.29870299995</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>333.96765462127155</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>752116.44940899999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>270.2054930195747</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3759.87</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1444428.654845</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>384.16983960748644</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1145419.5117559999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>304.64338175415639</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>736.84800000000007</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>189684.302884</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>257.42663735804399</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>128791.97147999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>174.78770584978179</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1280.278</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>300777.99772699998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>234.93178647684331</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>247625.659369</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>193.41553894466671</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1831.864</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>486534.47000099998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>265.5953007433958</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>370758.34286499996</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>202.39403299862872</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1839.354</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>566572.23304999992</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>308.02783643061639</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>375362.01046699996</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>204.07273992227707</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1058.521</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>239889.020704</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>226.62660514434765</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>189091.031185</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>178.63701446168758</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>838.72300000000007</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>191058.61131399998</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>227.79703348304506</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>136256.378344</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>162.45694745941151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1120.402</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>280507.55917299999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>250.36331528594204</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>195666.08715399998</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>174.63918053877092</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1284.279</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>344107.71482200001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>267.93844236493788</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>243347.038833</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>189.48144354380941</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1130.809</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>273827.27606999996</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>242.15165962598459</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>205013.143232</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>181.29776401850359</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>619.14800000000002</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>150299.08572599999</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>242.75146770400616</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>115658.982206</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>186.80344958878976</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>657.14300000000003</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>105870.437507</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>161.10715248735818</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>83284.237479000003</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>126.73685556872707</v>
       </c>
     </row>
